--- a/7_eval_compareFastResponse/eval/conversation_17487_output_eval.xlsx
+++ b/7_eval_compareFastResponse/eval/conversation_17487_output_eval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,100 +458,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
+          <t>Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tớ cũng thích cách học theo nhịp! 😄</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Okay, let's go! Ready to practice? 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Yên tâm nha! Cậu không học một mình đâu, Pika luôn bên cạnh nè! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. "}]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Dạ, mình đã nghe rồi. Mình thấy bài hát rất vui và dễ học. Mình sẽ tập theo nhịp nhé!</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>I'm here for you. 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Chào bạn! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cậu nói lại cùng tớ nha.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Okay, I'm here. What's your message?</t>
+          <t>Đã rồi! Cậu chuẩn bị sẵn sàng rồi!</t>
         </is>
       </c>
     </row>
